--- a/misc/charts.xlsx
+++ b/misc/charts.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Speed-up" sheetId="1" r:id="rId1"/>
     <sheet name="Convergence" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,18 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flooding time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flooding Speed-Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fitting time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +71,26 @@
   </si>
   <si>
     <t>dragon(nF=1.6M, nP=5000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTX1060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTX1080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTX960M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parallel Naïve Flooding time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parallel Queue Flooding time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,12 +162,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -215,7 +226,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>SpeedUp for Flooding</a:t>
+              <a:t>SpeedUp for Naive Flooding</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" b="1"/>
           </a:p>
@@ -266,7 +277,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GPU-Naïve</c:v>
+                  <c:v>GTX1060</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -398,7 +409,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GPU-Queue</c:v>
+                  <c:v>GTX1080</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -508,13 +519,147 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.188352289644495</c:v>
+                  <c:v>4.720895522388059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.225937005102939</c:v>
+                  <c:v>3.414080365893499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.852300912392594</c:v>
+                  <c:v>3.429716295488761</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed-up'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GTX960M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="PT Sans" charset="-52"/>
+                    <a:ea typeface="PT Sans" charset="-52"/>
+                    <a:cs typeface="PT Sans" charset="-52"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed-up'!$B$8:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>bunny(nF=28K, nP=200)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lucy(nF=134K, nP=2000)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dragon(nF=1.6M, nP=5000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed-up'!$B$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.984316185696362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.615622514800742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.546985557792117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,11 +676,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1516131984"/>
-        <c:axId val="-1516130208"/>
+        <c:axId val="-1949348048"/>
+        <c:axId val="-1949345728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1516131984"/>
+        <c:axId val="-1949348048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,7 +723,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516130208"/>
+        <c:crossAx val="-1949345728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -586,7 +731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1516130208"/>
+        <c:axId val="-1949345728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,7 +781,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516131984"/>
+        <c:crossAx val="-1949348048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -802,11 +947,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Speed-up'!$F$9</c:f>
+              <c:f>'Speed-up'!$K$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GPU</c:v>
+                  <c:v>GTX1060</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -836,6 +981,27 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0972222222222222"/>
+                  <c:y val="0.0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -845,6 +1011,886 @@
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="PT Sans" charset="-52"/>
+                    <a:ea typeface="PT Sans" charset="-52"/>
+                    <a:cs typeface="PT Sans" charset="-52"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed-up'!$L$8:$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>bunny(nF=28K, nP=200)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lucy(nF=134K, nP=2000)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dragon(nF=1.6M, nP=5000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed-up'!$L$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.136363636363636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.639705882352942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.52083333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed-up'!$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GTX1080</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0995"/>
+                  <c:y val="-0.040867964421114"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="PT Sans" charset="-52"/>
+                    <a:ea typeface="PT Sans" charset="-52"/>
+                    <a:cs typeface="PT Sans" charset="-52"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed-up'!$L$8:$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>bunny(nF=28K, nP=200)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lucy(nF=134K, nP=2000)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dragon(nF=1.6M, nP=5000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed-up'!$L$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.710526315789473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.114035087719297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.30952380952381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed-up'!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GTX960M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0939444444444444"/>
+                  <c:y val="0.000798702245552639"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="PT Sans" charset="-52"/>
+                    <a:ea typeface="PT Sans" charset="-52"/>
+                    <a:cs typeface="PT Sans" charset="-52"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed-up'!$L$8:$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>bunny(nF=28K, nP=200)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lucy(nF=134K, nP=2000)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dragon(nF=1.6M, nP=5000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed-up'!$L$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.162629757785467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39281663516068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.949341438703141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1949392624"/>
+        <c:axId val="-1949390304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1949392624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="PT Sans" charset="-52"/>
+                <a:ea typeface="PT Sans" charset="-52"/>
+                <a:cs typeface="PT Sans" charset="-52"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1949390304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1949390304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="PT Sans" charset="-52"/>
+                <a:ea typeface="PT Sans" charset="-52"/>
+                <a:cs typeface="PT Sans" charset="-52"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1949392624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="PT Sans" charset="-52"/>
+              <a:ea typeface="PT Sans" charset="-52"/>
+              <a:cs typeface="PT Sans" charset="-52"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="PT Sans" charset="-52"/>
+          <a:ea typeface="PT Sans" charset="-52"/>
+          <a:cs typeface="PT Sans" charset="-52"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="PT Sans" charset="-52"/>
+                <a:ea typeface="PT Sans" charset="-52"/>
+                <a:cs typeface="PT Sans" charset="-52"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t>Up for </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Queue Flooding</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="PT Sans" charset="-52"/>
+              <a:ea typeface="PT Sans" charset="-52"/>
+              <a:cs typeface="PT Sans" charset="-52"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed-up'!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GTX1060</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="PT Sans" charset="-52"/>
+                    <a:ea typeface="PT Sans" charset="-52"/>
+                    <a:cs typeface="PT Sans" charset="-52"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed-up'!$G$8:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>bunny(nF=28K, nP=200)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lucy(nF=134K, nP=2000)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dragon(nF=1.6M, nP=5000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed-up'!$G$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.188352289644495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.225937005102939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.852300912392594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed-up'!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GTX1080</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -911,18 +1957,170 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speed-up'!$G$9:$I$9</c:f>
+              <c:f>'Speed-up'!$G$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.136363636363636</c:v>
+                  <c:v>0.226462375599628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.639705882352942</c:v>
+                  <c:v>1.418844613400312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.52083333333334</c:v>
+                  <c:v>7.275058499655884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed-up'!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GTX960M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="PT Sans" charset="-52"/>
+                    <a:ea typeface="PT Sans" charset="-52"/>
+                    <a:cs typeface="PT Sans" charset="-52"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed-up'!$G$8:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>bunny(nF=28K, nP=200)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lucy(nF=134K, nP=2000)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dragon(nF=1.6M, nP=5000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed-up'!$G$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.14931080060423</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.991038406827881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.015018345627055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,11 +2137,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1552139056"/>
-        <c:axId val="-1516161568"/>
+        <c:axId val="-1510784032"/>
+        <c:axId val="-1510781200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1552139056"/>
+        <c:axId val="-1510784032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,7 +2184,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516161568"/>
+        <c:crossAx val="-1510781200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -994,7 +2192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1516161568"/>
+        <c:axId val="-1510781200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +2242,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1552139056"/>
+        <c:crossAx val="-1510784032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1056,6 +2254,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="PT Sans" charset="-52"/>
+              <a:ea typeface="PT Sans" charset="-52"/>
+              <a:cs typeface="PT Sans" charset="-52"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1097,7 +2327,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1680,11 +2910,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1516347392"/>
-        <c:axId val="-1469054976"/>
+        <c:axId val="-1493569296"/>
+        <c:axId val="-1471643488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1516347392"/>
+        <c:axId val="-1493569296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +3013,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1469054976"/>
+        <c:crossAx val="-1471643488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1791,7 +3021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1469054976"/>
+        <c:axId val="-1471643488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,7 +3132,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516347392"/>
+        <c:crossAx val="-1493569296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1987,7 +3217,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2538,11 +3768,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1511107360"/>
-        <c:axId val="-1498770352"/>
+        <c:axId val="-1949446784"/>
+        <c:axId val="-1949449232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1511107360"/>
+        <c:axId val="-1949446784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2679,7 +3909,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1498770352"/>
+        <c:crossAx val="-1949449232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2687,7 +3917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1498770352"/>
+        <c:axId val="-1949449232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,7 +4062,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511107360"/>
+        <c:crossAx val="-1949446784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2917,7 +4147,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3468,11 +4698,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1469549968"/>
-        <c:axId val="-1469547648"/>
+        <c:axId val="-1493594960"/>
+        <c:axId val="-1493591568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1469549968"/>
+        <c:axId val="-1493594960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3609,7 +4839,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1469547648"/>
+        <c:crossAx val="-1493591568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3617,7 +4847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1469547648"/>
+        <c:axId val="-1493591568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3762,7 +4992,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1469549968"/>
+        <c:crossAx val="-1493594960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4047,6 +5277,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5054,7 +6324,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5162,11 +6432,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5177,11 +6442,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5213,9 +6473,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6086,6 +7343,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6635,16 +8408,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1155700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6658,6 +8431,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1460500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1574800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7024,10 +8829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7035,47 +8840,66 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="4" max="5" width="24.5" customWidth="1"/>
     <col min="7" max="7" width="23.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -7092,18 +8916,30 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0.31630000000000003</v>
+      </c>
+      <c r="H3">
+        <v>2.0901000000000001</v>
+      </c>
+      <c r="I3">
+        <v>52.853299999999997</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>1.41E-2</v>
       </c>
-      <c r="H3">
+      <c r="M3">
         <v>0.10390000000000001</v>
       </c>
-      <c r="I3">
+      <c r="N3">
         <v>2.5299</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>8.6900000000000005E-2</v>
@@ -7115,124 +8951,311 @@
         <v>34.316000000000003</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G4">
+        <v>1.6793</v>
+      </c>
+      <c r="H4">
+        <v>1.7049000000000001</v>
+      </c>
+      <c r="I4">
+        <v>9.0312000000000001</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4">
         <v>6.6E-3</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="I4">
+      <c r="N4">
         <v>0.12959999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>1.6793</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="C5">
-        <v>1.7049000000000001</v>
+        <v>0.61219999999999997</v>
       </c>
       <c r="D5">
-        <v>9.0312000000000001</v>
+        <v>15.410399999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>1.3967000000000001</v>
+      </c>
+      <c r="H5">
+        <v>1.4731000000000001</v>
+      </c>
+      <c r="I5">
+        <v>7.2649999999999997</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>3.8E-3</v>
+      </c>
+      <c r="M5">
+        <v>1.14E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.1134</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="C6">
+        <v>3.3950999999999998</v>
+      </c>
+      <c r="D6">
+        <v>96.626499999999993</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>2.1183999999999998</v>
+      </c>
+      <c r="H6">
+        <v>2.109</v>
+      </c>
+      <c r="I6">
+        <v>13.1639</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="N6">
+        <v>2.6648999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" s="2">
+        <f>B$3/B4</f>
+        <v>3.6398158803222094</v>
+      </c>
+      <c r="C9" s="2">
+        <f>C$3/C4</f>
+        <v>2.4035188592456302</v>
+      </c>
+      <c r="D9" s="2">
+        <f>D$3/D4</f>
+        <v>1.540194078563935</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2">
+        <f>G$3/G4</f>
+        <v>0.18835228964449474</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ref="H9:I9" si="0">H$3/H4</f>
+        <v>1.2259370051029386</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.852300912392594</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="2">
+        <f>$L$3/L4</f>
+        <v>2.1363636363636362</v>
+      </c>
+      <c r="M9" s="2">
+        <f>$M$3/M4</f>
+        <v>7.639705882352942</v>
+      </c>
+      <c r="N9" s="2">
+        <f>$N$3/N4</f>
+        <v>19.520833333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B10" s="2">
+        <f t="shared" ref="B10:D11" si="1">B$3/B5</f>
+        <v>4.7208955223880595</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4140803658934993</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.429716295488761</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10:I11" si="2">G$3/G5</f>
+        <v>0.2264623755996277</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4188446134003123</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="2"/>
+        <v>7.2750584996558842</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10:L11" si="3">$L$3/L5</f>
+        <v>3.7105263157894735</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" ref="M10:M11" si="4">$M$3/M5</f>
+        <v>9.1140350877192979</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" ref="N10:N11" si="5">$N$3/N5</f>
+        <v>22.30952380952381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9843161856963616</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.61562251480074226</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54698555779211711</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <f>B3/B4</f>
-        <v>3.6398158803222094</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" ref="C9:D9" si="0">C3/C4</f>
-        <v>2.4035188592456302</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.540194078563935</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2">
-        <f>G3/G4</f>
-        <v>2.1363636363636362</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" ref="H9:I9" si="1">H3/H4</f>
-        <v>7.639705882352942</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
-        <v>19.520833333333336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2">
-        <f>B3/B5</f>
-        <v>0.18835228964449474</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" ref="C10:D10" si="2">C3/C5</f>
-        <v>1.2259370051029386</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>5.852300912392594</v>
+        <v>0.14931080060422963</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99103840682788058</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0150183456270554</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16262975778546712</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.39281663516068055</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="5"/>
+        <v>0.94934143870314092</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K7:N7"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7241,7 +9264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="91" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="91" workbookViewId="0">
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
